--- a/data/banner.xlsx
+++ b/data/banner.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stevenroberts/Documents/GitHub/Banner_Magic/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Admin/Documents/GitHub/banner_magic/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7814B6-1E46-6C48-AF93-2AC850BFB354}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30300" yWindow="1740" windowWidth="32980" windowHeight="16200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>product one</t>
   </si>
@@ -60,12 +61,15 @@
   </si>
   <si>
     <t>many great offers</t>
+  </si>
+  <si>
+    <t>https://www.wolseley.co.uk/wcsstore/Wolseley/Attachment/online-exclusive/online-offer-page/163873.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -104,9 +108,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -117,6 +123,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -384,18 +393,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="93.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" customWidth="1"/>
@@ -424,7 +433,7 @@
       <c r="F1">
         <v>6</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="2">
         <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -450,7 +459,7 @@
       <c r="F2">
         <v>30</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -464,8 +473,8 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -474,10 +483,10 @@
         <v>34</v>
       </c>
       <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>60</v>
+        <v>111</v>
+      </c>
+      <c r="G3" s="2">
+        <v>62.99</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>8</v>
@@ -490,8 +499,8 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -502,7 +511,7 @@
       <c r="F4">
         <v>12</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -511,11 +520,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H1" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="H3" r:id="rId4"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/banner.xlsx
+++ b/data/banner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Admin/Documents/GitHub/banner_magic/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7814B6-1E46-6C48-AF93-2AC850BFB354}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B180DD-DC08-8041-8E37-2346072FC394}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
-  <si>
-    <t>product one</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
   <si>
     <t>save over</t>
   </si>
   <si>
-    <t>product two</t>
-  </si>
-  <si>
     <t>Online exclusive offer</t>
   </si>
   <si>
@@ -54,16 +48,46 @@
     <t>www.yahoo.co.uk</t>
   </si>
   <si>
-    <t>product three</t>
-  </si>
-  <si>
-    <t>product four</t>
-  </si>
-  <si>
     <t>many great offers</t>
   </si>
   <si>
     <t>https://www.wolseley.co.uk/wcsstore/Wolseley/Attachment/online-exclusive/online-offer-page/163873.png</t>
+  </si>
+  <si>
+    <t>product 1</t>
+  </si>
+  <si>
+    <t>product 2</t>
+  </si>
+  <si>
+    <t>product 3</t>
+  </si>
+  <si>
+    <t>product 4</t>
+  </si>
+  <si>
+    <t>product 5</t>
+  </si>
+  <si>
+    <t>product 6</t>
+  </si>
+  <si>
+    <t>product 7</t>
+  </si>
+  <si>
+    <t>product 8</t>
+  </si>
+  <si>
+    <t>product 9</t>
+  </si>
+  <si>
+    <t>product 10</t>
+  </si>
+  <si>
+    <t>product 11</t>
+  </si>
+  <si>
+    <t>product 12</t>
   </si>
 </sst>
 </file>
@@ -394,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -416,16 +440,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
       </c>
       <c r="E1">
         <v>88</v>
@@ -437,21 +461,21 @@
         <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
       <c r="E2">
         <v>60</v>
@@ -463,21 +487,21 @@
         <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>34</v>
@@ -489,21 +513,21 @@
         <v>62.99</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>12</v>
@@ -515,7 +539,215 @@
         <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>88</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2">
+        <v>60</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>60</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>34</v>
+      </c>
+      <c r="F7">
+        <v>111</v>
+      </c>
+      <c r="G7" s="2">
+        <v>62.99</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>88</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2">
+        <v>60</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>60</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>34</v>
+      </c>
+      <c r="F11">
+        <v>111</v>
+      </c>
+      <c r="G11" s="2">
+        <v>62.99</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -524,6 +756,14 @@
     <hyperlink ref="H1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="H4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="H3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{8BF1C08B-5FDC-4B44-AE6F-E50E0B001AE4}"/>
+    <hyperlink ref="H5" r:id="rId6" xr:uid="{6B819144-EE05-4442-AAC6-CA8B684C344E}"/>
+    <hyperlink ref="H8" r:id="rId7" xr:uid="{AC3C0923-BE9D-C24A-94CE-6F7D82FF5387}"/>
+    <hyperlink ref="H7" r:id="rId8" xr:uid="{FDDED4C0-0318-594C-8317-FC2830E47D55}"/>
+    <hyperlink ref="H10" r:id="rId9" xr:uid="{A871CD85-81FE-774D-A22E-F1ED3E1100F9}"/>
+    <hyperlink ref="H9" r:id="rId10" xr:uid="{53B09DD4-08E6-0F41-A8AC-BAF54080EFD4}"/>
+    <hyperlink ref="H12" r:id="rId11" xr:uid="{7D809AFB-BCD4-AA44-930D-F2B307E4A97A}"/>
+    <hyperlink ref="H11" r:id="rId12" xr:uid="{C87C1256-BF37-1B4A-B4E5-73436B61D74F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
